--- a/Code/Results/Cases/Case_3_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41379565939473</v>
+        <v>10.51428138743031</v>
       </c>
       <c r="C2">
-        <v>8.845852116177923</v>
+        <v>6.295178173772804</v>
       </c>
       <c r="D2">
-        <v>8.546251633548064</v>
+        <v>9.749605101042016</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.51686129219256</v>
+        <v>37.22636074956853</v>
       </c>
       <c r="G2">
-        <v>33.39890174771141</v>
+        <v>40.75682497576504</v>
       </c>
       <c r="H2">
-        <v>11.36025943443677</v>
+        <v>17.24912843580258</v>
       </c>
       <c r="I2">
-        <v>17.16880777010544</v>
+        <v>24.98568356910541</v>
       </c>
       <c r="J2">
-        <v>8.300626465136215</v>
+        <v>11.42912107208592</v>
       </c>
       <c r="K2">
-        <v>12.37921135795481</v>
+        <v>10.99743220493115</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.52585961791594</v>
+        <v>10.25162481761651</v>
       </c>
       <c r="C3">
-        <v>8.243601644465288</v>
+        <v>6.09691674957317</v>
       </c>
       <c r="D3">
-        <v>8.069323480719731</v>
+        <v>9.666224074990254</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.90958641863914</v>
+        <v>37.22862395910788</v>
       </c>
       <c r="G3">
-        <v>32.73674696825799</v>
+        <v>40.76062850409306</v>
       </c>
       <c r="H3">
-        <v>11.36580602092304</v>
+        <v>17.29467743643058</v>
       </c>
       <c r="I3">
-        <v>17.2254499846441</v>
+        <v>25.06508622881022</v>
       </c>
       <c r="J3">
-        <v>8.031403747523328</v>
+        <v>11.41286008246627</v>
       </c>
       <c r="K3">
-        <v>11.60053077517867</v>
+        <v>10.8230573012549</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.94972102881604</v>
+        <v>10.0891008916001</v>
       </c>
       <c r="C4">
-        <v>7.853343537787914</v>
+        <v>5.973325603963222</v>
       </c>
       <c r="D4">
-        <v>7.765972522359816</v>
+        <v>9.616668020548589</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.5569817595588</v>
+        <v>37.23940729583802</v>
       </c>
       <c r="G4">
-        <v>32.36129393680319</v>
+        <v>40.77516573233449</v>
       </c>
       <c r="H4">
-        <v>11.37757005618965</v>
+        <v>17.3256819721062</v>
       </c>
       <c r="I4">
-        <v>17.27471843391268</v>
+        <v>25.11882061272538</v>
       </c>
       <c r="J4">
-        <v>7.867402338201694</v>
+        <v>11.405194638054</v>
       </c>
       <c r="K4">
-        <v>11.09665572054872</v>
+        <v>10.71683852968686</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.7071140881877</v>
+        <v>10.02266018200231</v>
       </c>
       <c r="C5">
-        <v>7.689116340987247</v>
+        <v>5.922578241031853</v>
       </c>
       <c r="D5">
-        <v>7.639828812539902</v>
+        <v>9.596905256263529</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.41840304831612</v>
+        <v>37.24616121230022</v>
       </c>
       <c r="G5">
-        <v>32.21602377884423</v>
+        <v>40.78415073341661</v>
       </c>
       <c r="H5">
-        <v>11.38437966975143</v>
+        <v>17.33907906616242</v>
       </c>
       <c r="I5">
-        <v>17.29826759570756</v>
+        <v>25.1419671575487</v>
       </c>
       <c r="J5">
-        <v>7.80097614261248</v>
+        <v>11.40265605814162</v>
       </c>
       <c r="K5">
-        <v>10.88483590074622</v>
+        <v>10.67382258841155</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.66635551135408</v>
+        <v>10.01161813682646</v>
       </c>
       <c r="C6">
-        <v>7.661531557420631</v>
+        <v>5.914131125360838</v>
       </c>
       <c r="D6">
-        <v>7.618734183137693</v>
+        <v>9.593650287532421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.39570096771063</v>
+        <v>37.2474251085367</v>
       </c>
       <c r="G6">
-        <v>32.19236537406669</v>
+        <v>40.78582730358489</v>
       </c>
       <c r="H6">
-        <v>11.38562965595199</v>
+        <v>17.34134965867229</v>
       </c>
       <c r="I6">
-        <v>17.30238269030223</v>
+        <v>25.14588598860177</v>
       </c>
       <c r="J6">
-        <v>7.789973005613089</v>
+        <v>11.40226992203364</v>
       </c>
       <c r="K6">
-        <v>10.84927158014012</v>
+        <v>10.66669770624542</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.94648088933412</v>
+        <v>10.08820556236248</v>
       </c>
       <c r="C7">
-        <v>7.851149800773817</v>
+        <v>5.972642642319294</v>
       </c>
       <c r="D7">
-        <v>7.764281354781619</v>
+        <v>9.616399720055814</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.55509213717061</v>
+        <v>37.23948883197257</v>
       </c>
       <c r="G7">
-        <v>32.35930361797431</v>
+        <v>40.77527452487947</v>
       </c>
       <c r="H7">
-        <v>11.37765384421446</v>
+        <v>17.32585956441487</v>
       </c>
       <c r="I7">
-        <v>17.27502219165663</v>
+        <v>25.11912772078896</v>
       </c>
       <c r="J7">
-        <v>7.866504741667958</v>
+        <v>11.40515803023505</v>
       </c>
       <c r="K7">
-        <v>11.09382531167084</v>
+        <v>10.71625723847362</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.11402865433671</v>
+        <v>10.4240380967561</v>
       </c>
       <c r="C8">
-        <v>8.642417342907825</v>
+        <v>6.227251895521203</v>
       </c>
       <c r="D8">
-        <v>8.384052233482601</v>
+        <v>9.720526694396737</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.30327986723184</v>
+        <v>37.22519035266829</v>
       </c>
       <c r="G8">
-        <v>33.16408512294391</v>
+        <v>40.75560022147625</v>
       </c>
       <c r="H8">
-        <v>11.36038480442814</v>
+        <v>17.2642026087277</v>
       </c>
       <c r="I8">
-        <v>17.18522567577248</v>
+        <v>25.01202597721648</v>
       </c>
       <c r="J8">
-        <v>8.20757338856483</v>
+        <v>11.42303435887835</v>
       </c>
       <c r="K8">
-        <v>12.11606051846299</v>
+        <v>10.93716514991149</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16036353027216</v>
+        <v>11.06835404434612</v>
       </c>
       <c r="C9">
-        <v>10.03381940764136</v>
+        <v>6.708408211974326</v>
       </c>
       <c r="D9">
-        <v>9.512059663978087</v>
+        <v>9.936852019413783</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.93013221441482</v>
+        <v>37.27173820561299</v>
       </c>
       <c r="G9">
-        <v>34.99214069761155</v>
+        <v>40.81406144639858</v>
       </c>
       <c r="H9">
-        <v>11.39677824392809</v>
+        <v>17.16744746967084</v>
       </c>
       <c r="I9">
-        <v>17.1320615429791</v>
+        <v>24.84165788856678</v>
       </c>
       <c r="J9">
-        <v>8.883633654367529</v>
+        <v>11.47638114389322</v>
       </c>
       <c r="K9">
-        <v>13.91721396188485</v>
+        <v>11.37465719276499</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.51903590537331</v>
+        <v>11.52764846785426</v>
       </c>
       <c r="C10">
-        <v>10.96159197399252</v>
+        <v>7.046764596021878</v>
       </c>
       <c r="D10">
-        <v>10.28384205410717</v>
+        <v>10.10196054367815</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.22098273334167</v>
+        <v>37.35139091302796</v>
       </c>
       <c r="G10">
-        <v>36.49058030371678</v>
+        <v>40.91633543506256</v>
       </c>
       <c r="H10">
-        <v>11.47186930892945</v>
+        <v>17.11115910623652</v>
       </c>
       <c r="I10">
-        <v>17.17922764130408</v>
+        <v>24.74084983425159</v>
       </c>
       <c r="J10">
-        <v>9.381165948317594</v>
+        <v>11.52655583040691</v>
       </c>
       <c r="K10">
-        <v>15.11852439732533</v>
+        <v>11.69548772823308</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.10654232355761</v>
+        <v>11.73251311434905</v>
       </c>
       <c r="C11">
-        <v>11.3638997129072</v>
+        <v>7.196663000610084</v>
       </c>
       <c r="D11">
-        <v>10.62217105850879</v>
+        <v>10.17814468920389</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.82865476531677</v>
+        <v>37.39746142060319</v>
       </c>
       <c r="G11">
-        <v>37.20646773187752</v>
+        <v>40.97572798611214</v>
       </c>
       <c r="H11">
-        <v>11.51775261597194</v>
+        <v>17.08877979185606</v>
       </c>
       <c r="I11">
-        <v>17.22194013741417</v>
+        <v>24.7003176226241</v>
       </c>
       <c r="J11">
-        <v>9.607120040747597</v>
+        <v>11.55172077894041</v>
       </c>
       <c r="K11">
-        <v>15.63914557596657</v>
+        <v>11.84065684694228</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.324695729957</v>
+        <v>11.80942803450829</v>
       </c>
       <c r="C12">
-        <v>11.51347111998763</v>
+        <v>7.252793996891175</v>
       </c>
       <c r="D12">
-        <v>10.74843887824028</v>
+        <v>10.20712539263505</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.06168814262246</v>
+        <v>37.41631576689966</v>
       </c>
       <c r="G12">
-        <v>37.48251620565344</v>
+        <v>41.00006313654852</v>
       </c>
       <c r="H12">
-        <v>11.53691654647348</v>
+        <v>17.08077040390437</v>
       </c>
       <c r="I12">
-        <v>17.24138621660997</v>
+        <v>24.68573800918148</v>
       </c>
       <c r="J12">
-        <v>9.69259523589208</v>
+        <v>11.56158206366574</v>
       </c>
       <c r="K12">
-        <v>15.83263073624723</v>
+        <v>11.89546433138668</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.27790353443028</v>
+        <v>11.79289367852285</v>
       </c>
       <c r="C13">
-        <v>11.48138052557984</v>
+        <v>7.240734101087702</v>
       </c>
       <c r="D13">
-        <v>10.72132722505254</v>
+        <v>10.20087840486929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.01137047473753</v>
+        <v>37.41219261736062</v>
       </c>
       <c r="G13">
-        <v>37.42284308436187</v>
+        <v>40.99474021309993</v>
       </c>
       <c r="H13">
-        <v>11.53270802290317</v>
+        <v>17.08247466184769</v>
       </c>
       <c r="I13">
-        <v>17.2370491617508</v>
+        <v>24.68884373593784</v>
       </c>
       <c r="J13">
-        <v>9.674191001802765</v>
+        <v>11.5594435783795</v>
       </c>
       <c r="K13">
-        <v>15.79112218025771</v>
+        <v>11.88366871430928</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.12457613469345</v>
+        <v>11.73885465754016</v>
       </c>
       <c r="C14">
-        <v>11.37626024611303</v>
+        <v>7.201293891770284</v>
       </c>
       <c r="D14">
-        <v>10.63259630507121</v>
+        <v>10.18052644843439</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.84776807934941</v>
+        <v>37.39898439163636</v>
       </c>
       <c r="G14">
-        <v>37.22907881841208</v>
+        <v>40.97769313007247</v>
       </c>
       <c r="H14">
-        <v>11.51929279300991</v>
+        <v>17.08811152531003</v>
       </c>
       <c r="I14">
-        <v>17.22347315607887</v>
+        <v>24.6991027180584</v>
       </c>
       <c r="J14">
-        <v>9.61415407335492</v>
+        <v>11.55252544986508</v>
       </c>
       <c r="K14">
-        <v>15.65513677795132</v>
+        <v>11.84516949263633</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.03009797931012</v>
+        <v>11.70566567888236</v>
       </c>
       <c r="C15">
-        <v>11.31151181036825</v>
+        <v>7.177051780988839</v>
       </c>
       <c r="D15">
-        <v>10.5780049027367</v>
+        <v>10.16807671220251</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.74793696211025</v>
+        <v>37.39107718828425</v>
       </c>
       <c r="G15">
-        <v>37.11103940241489</v>
+        <v>40.96749128786722</v>
       </c>
       <c r="H15">
-        <v>11.51131164491476</v>
+        <v>17.09162488058709</v>
       </c>
       <c r="I15">
-        <v>17.21559001631714</v>
+        <v>24.70548688784007</v>
       </c>
       <c r="J15">
-        <v>9.577367328954344</v>
+        <v>11.5483309696277</v>
       </c>
       <c r="K15">
-        <v>15.57136657417091</v>
+        <v>11.82156459522275</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.48003206764783</v>
+        <v>11.51417139720195</v>
       </c>
       <c r="C16">
-        <v>10.93490843059316</v>
+        <v>7.036882710326323</v>
       </c>
       <c r="D16">
-        <v>10.26147309401179</v>
+        <v>10.09700138732547</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.18167949905077</v>
+        <v>37.34857755060846</v>
       </c>
       <c r="G16">
-        <v>36.44448703815529</v>
+        <v>40.91271247786893</v>
       </c>
       <c r="H16">
-        <v>11.46911539777127</v>
+        <v>17.11268667747736</v>
       </c>
       <c r="I16">
-        <v>17.17688228580656</v>
+        <v>24.74360615572948</v>
       </c>
       <c r="J16">
-        <v>9.366388537809859</v>
+        <v>11.52495794473742</v>
       </c>
       <c r="K16">
-        <v>15.08398481346983</v>
+        <v>11.68598034566746</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13480685538386</v>
+        <v>11.39559608253768</v>
       </c>
       <c r="C17">
-        <v>10.69886319241648</v>
+        <v>6.949823225164928</v>
       </c>
       <c r="D17">
-        <v>10.0640079386377</v>
+        <v>10.05365792500772</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.83951944674882</v>
+        <v>37.325020921925</v>
       </c>
       <c r="G17">
-        <v>36.04436966897539</v>
+        <v>40.88239978790974</v>
       </c>
       <c r="H17">
-        <v>11.44630474585496</v>
+        <v>17.12643467813439</v>
       </c>
       <c r="I17">
-        <v>17.15873206282467</v>
+        <v>24.76835748536478</v>
       </c>
       <c r="J17">
-        <v>9.236835465205989</v>
+        <v>11.51121556061711</v>
       </c>
       <c r="K17">
-        <v>14.7784058491157</v>
+        <v>11.60256609632919</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.93336133829385</v>
+        <v>11.32701577417534</v>
       </c>
       <c r="C18">
-        <v>10.56123399564301</v>
+        <v>6.899373222907999</v>
       </c>
       <c r="D18">
-        <v>9.949230288302482</v>
+        <v>10.0288305366145</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.64464412326375</v>
+        <v>37.3123980517141</v>
       </c>
       <c r="G18">
-        <v>35.81745323702782</v>
+        <v>40.86617640238023</v>
       </c>
       <c r="H18">
-        <v>11.43428188634974</v>
+        <v>17.13464579449248</v>
       </c>
       <c r="I18">
-        <v>17.15028009589182</v>
+        <v>24.78309490682401</v>
       </c>
       <c r="J18">
-        <v>9.162285984082093</v>
+        <v>11.50353188430613</v>
       </c>
       <c r="K18">
-        <v>14.60020695227997</v>
+        <v>11.5545182134445</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.8646584017559</v>
+        <v>11.30373304586905</v>
       </c>
       <c r="C19">
-        <v>10.51431337083475</v>
+        <v>6.882228934711127</v>
       </c>
       <c r="D19">
-        <v>9.910162983990357</v>
+        <v>10.02044274193981</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.57899435791662</v>
+        <v>37.30828340976517</v>
       </c>
       <c r="G19">
-        <v>35.74117547394081</v>
+        <v>40.86089168579334</v>
       </c>
       <c r="H19">
-        <v>11.43039650025508</v>
+        <v>17.13747804852971</v>
       </c>
       <c r="I19">
-        <v>17.14775329942717</v>
+        <v>24.78817071178617</v>
       </c>
       <c r="J19">
-        <v>9.137040211420615</v>
+        <v>11.50096834329983</v>
       </c>
       <c r="K19">
-        <v>14.53945155673418</v>
+        <v>11.5382396156127</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17185434619887</v>
+        <v>11.40825842605887</v>
       </c>
       <c r="C20">
-        <v>10.7241828875468</v>
+        <v>6.959130147867876</v>
       </c>
       <c r="D20">
-        <v>10.08515288641802</v>
+        <v>10.05826145735774</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.87574382243307</v>
+        <v>37.32743273687871</v>
       </c>
       <c r="G20">
-        <v>36.08662932369388</v>
+        <v>40.88550125633142</v>
       </c>
       <c r="H20">
-        <v>11.44861868126523</v>
+        <v>17.12493974649109</v>
       </c>
       <c r="I20">
-        <v>17.16045693793428</v>
+        <v>24.7656707773876</v>
       </c>
       <c r="J20">
-        <v>9.250630414157142</v>
+        <v>11.51265566411831</v>
       </c>
       <c r="K20">
-        <v>14.81118718800723</v>
+        <v>11.61145334289158</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.16972882138337</v>
+        <v>11.75474580442449</v>
       </c>
       <c r="C21">
-        <v>11.40721136117412</v>
+        <v>7.212895998498981</v>
       </c>
       <c r="D21">
-        <v>10.65870899146196</v>
+        <v>10.1865009299655</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.89574287563704</v>
+        <v>37.40282579850825</v>
       </c>
       <c r="G21">
-        <v>37.28585721237601</v>
+        <v>40.98265027223903</v>
       </c>
       <c r="H21">
-        <v>11.52318378778714</v>
+        <v>17.0864432079962</v>
       </c>
       <c r="I21">
-        <v>17.22737022275344</v>
+        <v>24.6960685093674</v>
       </c>
       <c r="J21">
-        <v>9.631791003183691</v>
+        <v>11.55454850437914</v>
       </c>
       <c r="K21">
-        <v>15.69517791198577</v>
+        <v>11.85648253458916</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.79673963165352</v>
+        <v>11.97730009746611</v>
       </c>
       <c r="C22">
-        <v>11.83747553446983</v>
+        <v>7.375040244519399</v>
       </c>
       <c r="D22">
-        <v>11.02277989597303</v>
+        <v>10.27106808336367</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.5794007301637</v>
+        <v>37.46030511070523</v>
       </c>
       <c r="G22">
-        <v>38.09854304153394</v>
+        <v>41.05688930433591</v>
       </c>
       <c r="H22">
-        <v>11.58239312175282</v>
+        <v>17.06399538470462</v>
       </c>
       <c r="I22">
-        <v>17.29027583542613</v>
+        <v>24.65506346073354</v>
       </c>
       <c r="J22">
-        <v>9.880376322711706</v>
+        <v>11.58385980760603</v>
       </c>
       <c r="K22">
-        <v>16.2515985325385</v>
+        <v>12.01563902590521</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.46436896476273</v>
+        <v>11.85889906886309</v>
       </c>
       <c r="C23">
-        <v>11.60928911726834</v>
+        <v>7.288856294430975</v>
       </c>
       <c r="D23">
-        <v>10.82945649020954</v>
+        <v>10.22587157538776</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.21296395946733</v>
+        <v>37.4288788977813</v>
       </c>
       <c r="G23">
-        <v>37.66213660685187</v>
+        <v>41.01628581989304</v>
       </c>
       <c r="H23">
-        <v>11.54979869996456</v>
+        <v>17.07572769395496</v>
       </c>
       <c r="I23">
-        <v>17.2548751025177</v>
+        <v>24.67653730400573</v>
       </c>
       <c r="J23">
-        <v>9.747758247071905</v>
+        <v>11.56804068937028</v>
       </c>
       <c r="K23">
-        <v>15.9565566520624</v>
+        <v>11.93080121415042</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.15511443481628</v>
+        <v>11.4025350509581</v>
       </c>
       <c r="C24">
-        <v>10.71274184995511</v>
+        <v>6.954923724710363</v>
       </c>
       <c r="D24">
-        <v>10.07559715484899</v>
+        <v>10.05617991409127</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.85936105838184</v>
+        <v>37.32633948860445</v>
       </c>
       <c r="G24">
-        <v>36.06751402933363</v>
+        <v>40.88409533221572</v>
       </c>
       <c r="H24">
-        <v>11.44756915971861</v>
+        <v>17.12561464819142</v>
       </c>
       <c r="I24">
-        <v>17.15967096203143</v>
+        <v>24.76688385723658</v>
       </c>
       <c r="J24">
-        <v>9.24439392581673</v>
+        <v>11.51200391703828</v>
       </c>
       <c r="K24">
-        <v>14.79637459023276</v>
+        <v>11.60743570095585</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.63246936340376</v>
+        <v>10.89615523524031</v>
       </c>
       <c r="C25">
-        <v>9.674245807919844</v>
+        <v>6.580631391313382</v>
       </c>
       <c r="D25">
-        <v>9.216714155479902</v>
+        <v>9.877155674622248</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.47310324497268</v>
+        <v>37.25115621923936</v>
       </c>
       <c r="G25">
-        <v>34.47048558915728</v>
+        <v>40.78783061161331</v>
       </c>
       <c r="H25">
-        <v>11.37884801895751</v>
+        <v>17.19102871661758</v>
       </c>
       <c r="I25">
-        <v>17.13213933252124</v>
+        <v>24.88348191551614</v>
       </c>
       <c r="J25">
-        <v>8.700369649982392</v>
+        <v>11.4600070203651</v>
       </c>
       <c r="K25">
-        <v>13.45155692379601</v>
+        <v>11.25618042752149</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_214/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.51428138743031</v>
+        <v>13.41379565939478</v>
       </c>
       <c r="C2">
-        <v>6.295178173772804</v>
+        <v>8.845852116178001</v>
       </c>
       <c r="D2">
-        <v>9.749605101042016</v>
+        <v>8.546251633548112</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.22636074956853</v>
+        <v>28.5168612921924</v>
       </c>
       <c r="G2">
-        <v>40.75682497576504</v>
+        <v>33.39890174771116</v>
       </c>
       <c r="H2">
-        <v>17.24912843580258</v>
+        <v>11.36025943443667</v>
       </c>
       <c r="I2">
-        <v>24.98568356910541</v>
+        <v>17.16880777010534</v>
       </c>
       <c r="J2">
-        <v>11.42912107208592</v>
+        <v>8.300626465136185</v>
       </c>
       <c r="K2">
-        <v>10.99743220493115</v>
+        <v>12.37921135795484</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.25162481761651</v>
+        <v>12.52585961791594</v>
       </c>
       <c r="C3">
-        <v>6.09691674957317</v>
+        <v>8.243601644465178</v>
       </c>
       <c r="D3">
-        <v>9.666224074990254</v>
+        <v>8.069323480719673</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.22862395910788</v>
+        <v>27.90958641863918</v>
       </c>
       <c r="G3">
-        <v>40.76062850409306</v>
+        <v>32.736746968258</v>
       </c>
       <c r="H3">
-        <v>17.29467743643058</v>
+        <v>11.36580602092311</v>
       </c>
       <c r="I3">
-        <v>25.06508622881022</v>
+        <v>17.2254499846441</v>
       </c>
       <c r="J3">
-        <v>11.41286008246627</v>
+        <v>8.031403747523362</v>
       </c>
       <c r="K3">
-        <v>10.8230573012549</v>
+        <v>11.60053077517861</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.0891008916001</v>
+        <v>11.94972102881607</v>
       </c>
       <c r="C4">
-        <v>5.973325603963222</v>
+        <v>7.853343537787946</v>
       </c>
       <c r="D4">
-        <v>9.616668020548589</v>
+        <v>7.765972522359816</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.23940729583802</v>
+        <v>27.55698175955881</v>
       </c>
       <c r="G4">
-        <v>40.77516573233449</v>
+        <v>32.36129393680319</v>
       </c>
       <c r="H4">
-        <v>17.3256819721062</v>
+        <v>11.37757005618965</v>
       </c>
       <c r="I4">
-        <v>25.11882061272538</v>
+        <v>17.27471843391268</v>
       </c>
       <c r="J4">
-        <v>11.405194638054</v>
+        <v>7.867402338201634</v>
       </c>
       <c r="K4">
-        <v>10.71683852968686</v>
+        <v>11.09665572054874</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.02266018200231</v>
+        <v>11.70711408818768</v>
       </c>
       <c r="C5">
-        <v>5.922578241031853</v>
+        <v>7.689116340987185</v>
       </c>
       <c r="D5">
-        <v>9.596905256263529</v>
+        <v>7.639828812539886</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.24616121230022</v>
+        <v>27.41840304831625</v>
       </c>
       <c r="G5">
-        <v>40.78415073341661</v>
+        <v>32.21602377884449</v>
       </c>
       <c r="H5">
-        <v>17.33907906616242</v>
+        <v>11.38437966975143</v>
       </c>
       <c r="I5">
-        <v>25.1419671575487</v>
+        <v>17.29826759570765</v>
       </c>
       <c r="J5">
-        <v>11.40265605814162</v>
+        <v>7.800976142612511</v>
       </c>
       <c r="K5">
-        <v>10.67382258841155</v>
+        <v>10.88483590074618</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.01161813682646</v>
+        <v>11.66635551135405</v>
       </c>
       <c r="C6">
-        <v>5.914131125360838</v>
+        <v>7.661531557420584</v>
       </c>
       <c r="D6">
-        <v>9.593650287532421</v>
+        <v>7.618734183137711</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.2474251085367</v>
+        <v>27.39570096771071</v>
       </c>
       <c r="G6">
-        <v>40.78582730358489</v>
+        <v>32.19236537406677</v>
       </c>
       <c r="H6">
-        <v>17.34134965867229</v>
+        <v>11.385629655952</v>
       </c>
       <c r="I6">
-        <v>25.14588598860177</v>
+        <v>17.30238269030227</v>
       </c>
       <c r="J6">
-        <v>11.40226992203364</v>
+        <v>7.789973005613132</v>
       </c>
       <c r="K6">
-        <v>10.66669770624542</v>
+        <v>10.84927158014007</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.08820556236248</v>
+        <v>11.94648088933416</v>
       </c>
       <c r="C7">
-        <v>5.972642642319294</v>
+        <v>7.851149800773799</v>
       </c>
       <c r="D7">
-        <v>9.616399720055814</v>
+        <v>7.764281354781601</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.23948883197257</v>
+        <v>27.55509213717071</v>
       </c>
       <c r="G7">
-        <v>40.77527452487947</v>
+        <v>32.35930361797461</v>
       </c>
       <c r="H7">
-        <v>17.32585956441487</v>
+        <v>11.37765384421447</v>
       </c>
       <c r="I7">
-        <v>25.11912772078896</v>
+        <v>17.27502219165674</v>
       </c>
       <c r="J7">
-        <v>11.40515803023505</v>
+        <v>7.866504741667881</v>
       </c>
       <c r="K7">
-        <v>10.71625723847362</v>
+        <v>11.09382531167087</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.4240380967561</v>
+        <v>13.11402865433668</v>
       </c>
       <c r="C8">
-        <v>6.227251895521203</v>
+        <v>8.642417342907843</v>
       </c>
       <c r="D8">
-        <v>9.720526694396737</v>
+        <v>8.384052233482645</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.22519035266829</v>
+        <v>28.30327986723192</v>
       </c>
       <c r="G8">
-        <v>40.75560022147625</v>
+        <v>33.16408512294398</v>
       </c>
       <c r="H8">
-        <v>17.2642026087277</v>
+        <v>11.36038480442815</v>
       </c>
       <c r="I8">
-        <v>25.01202597721648</v>
+        <v>17.18522567577251</v>
       </c>
       <c r="J8">
-        <v>11.42303435887835</v>
+        <v>8.20757338856483</v>
       </c>
       <c r="K8">
-        <v>10.93716514991149</v>
+        <v>12.11606051846301</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.06835404434612</v>
+        <v>15.16036353027216</v>
       </c>
       <c r="C9">
-        <v>6.708408211974326</v>
+        <v>10.03381940764136</v>
       </c>
       <c r="D9">
-        <v>9.936852019413783</v>
+        <v>9.512059663978079</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.27173820561299</v>
+        <v>29.930132214415</v>
       </c>
       <c r="G9">
-        <v>40.81406144639858</v>
+        <v>34.99214069761176</v>
       </c>
       <c r="H9">
-        <v>17.16744746967084</v>
+        <v>11.39677824392825</v>
       </c>
       <c r="I9">
-        <v>24.84165788856678</v>
+        <v>17.13206154297934</v>
       </c>
       <c r="J9">
-        <v>11.47638114389322</v>
+        <v>8.883633654367515</v>
       </c>
       <c r="K9">
-        <v>11.37465719276499</v>
+        <v>13.91721396188483</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.52764846785426</v>
+        <v>16.51903590537336</v>
       </c>
       <c r="C10">
-        <v>7.046764596021878</v>
+        <v>10.9615919739926</v>
       </c>
       <c r="D10">
-        <v>10.10196054367815</v>
+        <v>10.28384205410715</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.35139091302796</v>
+        <v>31.22098273334149</v>
       </c>
       <c r="G10">
-        <v>40.91633543506256</v>
+        <v>36.49058030371654</v>
       </c>
       <c r="H10">
-        <v>17.11115910623652</v>
+        <v>11.47186930892926</v>
       </c>
       <c r="I10">
-        <v>24.74084983425159</v>
+        <v>17.1792276413039</v>
       </c>
       <c r="J10">
-        <v>11.52655583040691</v>
+        <v>9.381165948317612</v>
       </c>
       <c r="K10">
-        <v>11.69548772823308</v>
+        <v>15.11852439732537</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.73251311434905</v>
+        <v>17.10654232355769</v>
       </c>
       <c r="C11">
-        <v>7.196663000610084</v>
+        <v>11.36389971290715</v>
       </c>
       <c r="D11">
-        <v>10.17814468920389</v>
+        <v>10.6221710585088</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.39746142060319</v>
+        <v>31.8286547653167</v>
       </c>
       <c r="G11">
-        <v>40.97572798611214</v>
+        <v>37.20646773187749</v>
       </c>
       <c r="H11">
-        <v>17.08877979185606</v>
+        <v>11.51775261597188</v>
       </c>
       <c r="I11">
-        <v>24.7003176226241</v>
+        <v>17.22194013741402</v>
       </c>
       <c r="J11">
-        <v>11.55172077894041</v>
+        <v>9.607120040747599</v>
       </c>
       <c r="K11">
-        <v>11.84065684694228</v>
+        <v>15.63914557596659</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.80942803450829</v>
+        <v>17.3246957299569</v>
       </c>
       <c r="C12">
-        <v>7.252793996891175</v>
+        <v>11.5134711199878</v>
       </c>
       <c r="D12">
-        <v>10.20712539263505</v>
+        <v>10.7484388782403</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.41631576689966</v>
+        <v>32.06168814262239</v>
       </c>
       <c r="G12">
-        <v>41.00006313654852</v>
+        <v>37.48251620565332</v>
       </c>
       <c r="H12">
-        <v>17.08077040390437</v>
+        <v>11.53691654647357</v>
       </c>
       <c r="I12">
-        <v>24.68573800918148</v>
+        <v>17.24138621661008</v>
       </c>
       <c r="J12">
-        <v>11.56158206366574</v>
+        <v>9.692595235892043</v>
       </c>
       <c r="K12">
-        <v>11.89546433138668</v>
+        <v>15.83263073624723</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.79289367852285</v>
+        <v>17.27790353443019</v>
       </c>
       <c r="C13">
-        <v>7.240734101087702</v>
+        <v>11.48138052557988</v>
       </c>
       <c r="D13">
-        <v>10.20087840486929</v>
+        <v>10.72132722505253</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.41219261736062</v>
+        <v>32.01137047473758</v>
       </c>
       <c r="G13">
-        <v>40.99474021309993</v>
+        <v>37.42284308436204</v>
       </c>
       <c r="H13">
-        <v>17.08247466184769</v>
+        <v>11.53270802290318</v>
       </c>
       <c r="I13">
-        <v>24.68884373593784</v>
+        <v>17.23704916175091</v>
       </c>
       <c r="J13">
-        <v>11.5594435783795</v>
+        <v>9.674191001802777</v>
       </c>
       <c r="K13">
-        <v>11.88366871430928</v>
+        <v>15.79112218025768</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.73885465754016</v>
+        <v>17.12457613469352</v>
       </c>
       <c r="C14">
-        <v>7.201293891770284</v>
+        <v>11.37626024611301</v>
       </c>
       <c r="D14">
-        <v>10.18052644843439</v>
+        <v>10.63259630507124</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.39898439163636</v>
+        <v>31.84776807934933</v>
       </c>
       <c r="G14">
-        <v>40.97769313007247</v>
+        <v>37.22907881841198</v>
       </c>
       <c r="H14">
-        <v>17.08811152531003</v>
+        <v>11.51929279300978</v>
       </c>
       <c r="I14">
-        <v>24.6991027180584</v>
+        <v>17.22347315607873</v>
       </c>
       <c r="J14">
-        <v>11.55252544986508</v>
+        <v>9.614154073354985</v>
       </c>
       <c r="K14">
-        <v>11.84516949263633</v>
+        <v>15.65513677795138</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.70566567888236</v>
+        <v>17.03009797931012</v>
       </c>
       <c r="C15">
-        <v>7.177051780988839</v>
+        <v>11.31151181036828</v>
       </c>
       <c r="D15">
-        <v>10.16807671220251</v>
+        <v>10.57800490273669</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.39107718828425</v>
+        <v>31.74793696211023</v>
       </c>
       <c r="G15">
-        <v>40.96749128786722</v>
+        <v>37.11103940241492</v>
       </c>
       <c r="H15">
-        <v>17.09162488058709</v>
+        <v>11.51131164491473</v>
       </c>
       <c r="I15">
-        <v>24.70548688784007</v>
+        <v>17.21559001631714</v>
       </c>
       <c r="J15">
-        <v>11.5483309696277</v>
+        <v>9.577367328954347</v>
       </c>
       <c r="K15">
-        <v>11.82156459522275</v>
+        <v>15.57136657417093</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.51417139720195</v>
+        <v>16.48003206764788</v>
       </c>
       <c r="C16">
-        <v>7.036882710326323</v>
+        <v>10.93490843059303</v>
       </c>
       <c r="D16">
-        <v>10.09700138732547</v>
+        <v>10.26147309401179</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.34857755060846</v>
+        <v>31.18167949905076</v>
       </c>
       <c r="G16">
-        <v>40.91271247786893</v>
+        <v>36.44448703815527</v>
       </c>
       <c r="H16">
-        <v>17.11268667747736</v>
+        <v>11.46911539777131</v>
       </c>
       <c r="I16">
-        <v>24.74360615572948</v>
+        <v>17.17688228580656</v>
       </c>
       <c r="J16">
-        <v>11.52495794473742</v>
+        <v>9.366388537809907</v>
       </c>
       <c r="K16">
-        <v>11.68598034566746</v>
+        <v>15.08398481346984</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.39559608253768</v>
+        <v>16.13480685538386</v>
       </c>
       <c r="C17">
-        <v>6.949823225164928</v>
+        <v>10.69886319241647</v>
       </c>
       <c r="D17">
-        <v>10.05365792500772</v>
+        <v>10.0640079386377</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.325020921925</v>
+        <v>30.83951944674895</v>
       </c>
       <c r="G17">
-        <v>40.88239978790974</v>
+        <v>36.04436966897556</v>
       </c>
       <c r="H17">
-        <v>17.12643467813439</v>
+        <v>11.44630474585498</v>
       </c>
       <c r="I17">
-        <v>24.76835748536478</v>
+        <v>17.15873206282477</v>
       </c>
       <c r="J17">
-        <v>11.51121556061711</v>
+        <v>9.236835465206001</v>
       </c>
       <c r="K17">
-        <v>11.60256609632919</v>
+        <v>14.77840584911567</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.32701577417534</v>
+        <v>15.93336133829376</v>
       </c>
       <c r="C18">
-        <v>6.899373222907999</v>
+        <v>10.5612339956429</v>
       </c>
       <c r="D18">
-        <v>10.0288305366145</v>
+        <v>9.949230288302443</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.3123980517141</v>
+        <v>30.6446441232639</v>
       </c>
       <c r="G18">
-        <v>40.86617640238023</v>
+        <v>35.81745323702823</v>
       </c>
       <c r="H18">
-        <v>17.13464579449248</v>
+        <v>11.43428188634981</v>
       </c>
       <c r="I18">
-        <v>24.78309490682401</v>
+        <v>17.15028009589208</v>
       </c>
       <c r="J18">
-        <v>11.50353188430613</v>
+        <v>9.162285984082086</v>
       </c>
       <c r="K18">
-        <v>11.5545182134445</v>
+        <v>14.60020695227991</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.30373304586905</v>
+        <v>15.86465840175582</v>
       </c>
       <c r="C19">
-        <v>6.882228934711127</v>
+        <v>10.51431337083479</v>
       </c>
       <c r="D19">
-        <v>10.02044274193981</v>
+        <v>9.910162983990354</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.30828340976517</v>
+        <v>30.57899435791677</v>
       </c>
       <c r="G19">
-        <v>40.86089168579334</v>
+        <v>35.74117547394096</v>
       </c>
       <c r="H19">
-        <v>17.13747804852971</v>
+        <v>11.43039650025518</v>
       </c>
       <c r="I19">
-        <v>24.78817071178617</v>
+        <v>17.14775329942735</v>
       </c>
       <c r="J19">
-        <v>11.50096834329983</v>
+        <v>9.137040211420617</v>
       </c>
       <c r="K19">
-        <v>11.5382396156127</v>
+        <v>14.53945155673412</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.40825842605887</v>
+        <v>16.17185434619891</v>
       </c>
       <c r="C20">
-        <v>6.959130147867876</v>
+        <v>10.72418288754684</v>
       </c>
       <c r="D20">
-        <v>10.05826145735774</v>
+        <v>10.08515288641803</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.32743273687871</v>
+        <v>30.87574382243312</v>
       </c>
       <c r="G20">
-        <v>40.88550125633142</v>
+        <v>36.08662932369392</v>
       </c>
       <c r="H20">
-        <v>17.12493974649109</v>
+        <v>11.44861868126524</v>
       </c>
       <c r="I20">
-        <v>24.7656707773876</v>
+        <v>17.16045693793434</v>
       </c>
       <c r="J20">
-        <v>11.51265566411831</v>
+        <v>9.250630414157193</v>
       </c>
       <c r="K20">
-        <v>11.61145334289158</v>
+        <v>14.81118718800728</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.75474580442449</v>
+        <v>17.16972882138331</v>
       </c>
       <c r="C21">
-        <v>7.212895998498981</v>
+        <v>11.40721136117426</v>
       </c>
       <c r="D21">
-        <v>10.1865009299655</v>
+        <v>10.65870899146195</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.40282579850825</v>
+        <v>31.89574287563709</v>
       </c>
       <c r="G21">
-        <v>40.98265027223903</v>
+        <v>37.28585721237614</v>
       </c>
       <c r="H21">
-        <v>17.0864432079962</v>
+        <v>11.52318378778717</v>
       </c>
       <c r="I21">
-        <v>24.6960685093674</v>
+        <v>17.22737022275357</v>
       </c>
       <c r="J21">
-        <v>11.55454850437914</v>
+        <v>9.631791003183684</v>
       </c>
       <c r="K21">
-        <v>11.85648253458916</v>
+        <v>15.69517791198576</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.97730009746611</v>
+        <v>17.79673963165348</v>
       </c>
       <c r="C22">
-        <v>7.375040244519399</v>
+        <v>11.83747553446989</v>
       </c>
       <c r="D22">
-        <v>10.27106808336367</v>
+        <v>11.02277989597301</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.46030511070523</v>
+        <v>32.57940073016374</v>
       </c>
       <c r="G22">
-        <v>41.05688930433591</v>
+        <v>38.09854304153404</v>
       </c>
       <c r="H22">
-        <v>17.06399538470462</v>
+        <v>11.58239312175281</v>
       </c>
       <c r="I22">
-        <v>24.65506346073354</v>
+        <v>17.29027583542618</v>
       </c>
       <c r="J22">
-        <v>11.58385980760603</v>
+        <v>9.880376322711719</v>
       </c>
       <c r="K22">
-        <v>12.01563902590521</v>
+        <v>16.25159853253847</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.85889906886309</v>
+        <v>17.46436896476282</v>
       </c>
       <c r="C23">
-        <v>7.288856294430975</v>
+        <v>11.60928911726834</v>
       </c>
       <c r="D23">
-        <v>10.22587157538776</v>
+        <v>10.82945649020954</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.4288788977813</v>
+        <v>32.21296395946732</v>
       </c>
       <c r="G23">
-        <v>41.01628581989304</v>
+        <v>37.66213660685188</v>
       </c>
       <c r="H23">
-        <v>17.07572769395496</v>
+        <v>11.54979869996447</v>
       </c>
       <c r="I23">
-        <v>24.67653730400573</v>
+        <v>17.25487510251763</v>
       </c>
       <c r="J23">
-        <v>11.56804068937028</v>
+        <v>9.747758247071895</v>
       </c>
       <c r="K23">
-        <v>11.93080121415042</v>
+        <v>15.95655665206248</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.4025350509581</v>
+        <v>16.15511443481633</v>
       </c>
       <c r="C24">
-        <v>6.954923724710363</v>
+        <v>10.7127418499551</v>
       </c>
       <c r="D24">
-        <v>10.05617991409127</v>
+        <v>10.07559715484896</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.32633948860445</v>
+        <v>30.85936105838183</v>
       </c>
       <c r="G24">
-        <v>40.88409533221572</v>
+        <v>36.06751402933367</v>
       </c>
       <c r="H24">
-        <v>17.12561464819142</v>
+        <v>11.44756915971859</v>
       </c>
       <c r="I24">
-        <v>24.76688385723658</v>
+        <v>17.15967096203143</v>
       </c>
       <c r="J24">
-        <v>11.51200391703828</v>
+        <v>9.24439392581673</v>
       </c>
       <c r="K24">
-        <v>11.60743570095585</v>
+        <v>14.7963745902328</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.89615523524031</v>
+        <v>14.63246936340383</v>
       </c>
       <c r="C25">
-        <v>6.580631391313382</v>
+        <v>9.674245807919926</v>
       </c>
       <c r="D25">
-        <v>9.877155674622248</v>
+        <v>9.216714155479909</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.25115621923936</v>
+        <v>29.47310324497261</v>
       </c>
       <c r="G25">
-        <v>40.78783061161331</v>
+        <v>34.47048558915719</v>
       </c>
       <c r="H25">
-        <v>17.19102871661758</v>
+        <v>11.37884801895748</v>
       </c>
       <c r="I25">
-        <v>24.88348191551614</v>
+        <v>17.13213933252116</v>
       </c>
       <c r="J25">
-        <v>11.4600070203651</v>
+        <v>8.700369649982347</v>
       </c>
       <c r="K25">
-        <v>11.25618042752149</v>
+        <v>13.45155692379605</v>
       </c>
       <c r="L25">
         <v>0</v>
